--- a/Course III/EXCEL/task8/Практика 8.xlsx
+++ b/Course III/EXCEL/task8/Практика 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191770\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demg/Documents/Projects/FA/Course III/EXCEL/task8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCD7E9-96A1-4B89-9BE3-DD082513B986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCD9CB-1176-304B-AB11-08F2852375C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D2375C9-A1A9-4E4F-A94B-2C8E1D645D5E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{3D2375C9-A1A9-4E4F-A94B-2C8E1D645D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Депозит</t>
   </si>
@@ -100,6 +107,18 @@
   </si>
   <si>
     <t>Периодов</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>xm</t>
+  </si>
+  <si>
+    <t>Эффект/год</t>
+  </si>
+  <si>
+    <t>Доходность</t>
   </si>
 </sst>
 </file>
@@ -107,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -230,13 +255,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +273,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,11 +283,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,9 +304,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +344,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,20 +602,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421D4B7-6B76-4808-A178-D6597D6F6BA5}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -609,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -620,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +660,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,7 +671,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +682,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +693,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -677,7 +704,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -688,7 +715,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +726,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -710,7 +737,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,7 +748,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +759,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -743,63 +770,71 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>0.25</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2">
         <v>0.1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>0.05</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -809,11 +844,11 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="14">
         <v>0.04</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -823,7 +858,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -833,9 +868,11 @@
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -849,7 +886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -857,7 +894,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>

--- a/Course III/EXCEL/task8/Практика 8.xlsx
+++ b/Course III/EXCEL/task8/Практика 8.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA315944-3217-1245-8B30-712C25C9D1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBF768-1DE5-074B-B278-EFD28367FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="800" windowWidth="36500" windowHeight="16660" xr2:uid="{078DC951-35FF-E64A-942F-6BCE178BBA75}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{078DC951-35FF-E64A-942F-6BCE178BBA75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,12 +333,6 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -347,6 +341,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -666,7 +666,7 @@
   <dimension ref="A4:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -694,10 +694,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -740,10 +740,10 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1044,14 +1044,14 @@
         <v>4000</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" ref="G20:I20" si="2">$B$24*$B$25+G21</f>
+        <f t="shared" ref="G20:H20" si="2">$B$24*$B$25+G21</f>
         <v>4204.6475915269339</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="2"/>
         <v>4419.7653422333115</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>0</v>
       </c>
       <c r="J20" s="16"/>
@@ -1060,53 +1060,53 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31">
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29">
         <f>FV($B$37/$B$38,$B$38,,-F22)-F22</f>
         <v>204.64759152693387</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <f>FV($B$37/$B$38,$B$38,,-G22)-G22</f>
         <v>419.76534223331146</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="29">
         <f>FV($B$37/$B$38,$B$38,,-H22)-H22</f>
         <v>5762.0787135072169</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30">
+      <c r="E22" s="27"/>
+      <c r="F22" s="28">
         <f>F20+F19</f>
         <v>4000</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="29">
         <f>F22+G20+G19</f>
         <v>8204.647591526933</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="29">
         <f>G22+H20+H19</f>
         <v>112624.41293376025</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6"/>
       <c r="D23" s="11" t="s">
         <v>30</v>
@@ -1241,10 +1241,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1326,10 +1326,10 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1371,10 +1371,10 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
